--- a/student_answer.xlsx
+++ b/student_answer.xlsx
@@ -1,37 +1,282 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e727e4784c062ba3/바탕 화면/pythonworkspace/Jisik_GPT_Ref/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_2B59D2BFD300D919209F00D1503088B35299F1EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3167408D-59E0-4E37-AB56-CB3507659C79}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+  <si>
+    <t>날짜</t>
+  </si>
+  <si>
+    <t>주제</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>제출 답변</t>
+  </si>
+  <si>
+    <t>인공지능 피드백</t>
+  </si>
+  <si>
+    <t>250410</t>
+  </si>
+  <si>
+    <t>이주영</t>
+  </si>
+  <si>
+    <t>독도는 역사적으로, 지리적으로, 국제법적으로 모두 대한민국의 영토입니다. 신라 지증왕 13년(512년)에 이사부 장군이 우산국을 정벌하여 독도를 포함한 울릉도를 신라에 복속시켰습니다. 또한, 『세종실록지리지』에는 울릉도와 독도가 강원도 울진현에 속한 섬으로 기록되어 있습니다. 1900년 대한제국 칙령 제41호를 통해 독도를 울도군의 관할로 명시하였고, 이는 일본이 독도를 편입하기 5년 전의 일입니다. 이러한 역사적 문헌과 국제법적 근거를 통해 독도는 명백히 대한민국의 영토입니다</t>
+  </si>
+  <si>
+    <t>독도는 우리나라 땅입니다. 옛날부터 우리나라 사람들이 독도에 가서 물고기를 잡았고, 지도에도 우리 땅이라고 표시되어 있습니다. 그래서 독도는 대한민국의 영토입니다</t>
+  </si>
+  <si>
+    <t>독도는 일본과 가까우니까 일본 땅일 수도 있습니다. 하지만 우리나라 사람들이 살고 있으니 우리 땅일 것 같습니다</t>
+  </si>
+  <si>
+    <t>독도가 대한민국 땅인 이유는?</t>
+  </si>
+  <si>
+    <t>이주일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이주이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저의 취미는 수채화 그리기입니다. 어릴 적부터 그림 그리기를 좋아했으며, 특히 자연 풍경을 수채화로 표현하는 것을 즐깁니다. 주말마다 공원에 나가 스케치를 하고, 집에서 색을 입히며 스트레스를 해소합니다. 작년에는 지역 미술 대회에 참가하여 입상하기도 했습니다.</t>
+  </si>
+  <si>
+    <t>제 취미는 음악 듣기입니다. 시간이 날 때마다 좋아하는 가수의 노래를 듣고, 가끔 따라 부르기도 합니다. 음악을 들으면 기분이 좋아지고 스트레스가 풀립니다.</t>
+  </si>
+  <si>
+    <t>나는 취미가 없습니다. 그냥 집에서 TV를 보거나 핸드폰을 합니다.</t>
+  </si>
+  <si>
+    <t>나의 취미는?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>학생 A의 답변</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">은 매우 훌륭합니다. 역사적, 지리적, 국제법적 근거를 모두 포함하여 논리적으로 구조화된 주장을 펼쳤습니다. “지증왕 13년”, “세종실록지리지”, “대한제국 칙령 제41호” 등 구체적인 자료를 인용해 설득력을 높였고, 정보의 정확성도 높습니다. 다만 각 문단 간의 연결이 조금 더 유기적이었다면 더 좋았겠지만, 전체적으로 뛰어난 완성도를 보였습니다. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>점수: 5점</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>학생 B의 답변</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">은 핵심적인 주장인 ‘독도는 대한민국 땅이다’를 분명히 했고, 과거 우리나라 사람들이 독도를 이용했다는 근거도 간단히 제시했습니다. 하지만 역사적 자료나 구체적인 사례가 부족해 주장의 설득력이 떨어지는 면이 있습니다. 문장이 간결하고 명료한 점은 좋지만, 정보가 더 보완되어야 합니다. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>점수: 3점</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>학생 C의 답변</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">은 독도 문제를 명확히 이해하지 못한 상태에서 쓴 것으로 보이며, 논리적으로나 사실적으로 부족한 점이 많습니다. ‘일본과 가까우니까 일본 땅일 수도 있다’는 표현은 오해를 불러일으킬 수 있고, 지리적 거리만으로 영토 문제를 판단하려는 접근은 정확하지 않습니다. 주제에 대한 이해를 높이고, 객관적인 근거를 중심으로 다시 생각해볼 필요가 있습니다. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>점수: 1점</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>학생 A의 답변</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">은 취미 활동인 수채화 그리기에 대해 매우 구체적이고 풍부하게 묘사하였습니다. 취미의 시작 계기, 활동 내용, 장소, 감정, 성취 경험까지 다양하게 포함되어 있어 독자의 흥미를 끌기에 충분합니다. 감정적인 공감과 경험의 진정성도 느껴지며, 글 전체가 자연스럽고 잘 짜여졌습니다. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>점수: 5점</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>학생 B의 답변</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">은 ‘음악 듣기’라는 일상적인 취미를 선택했고, 그것이 자신에게 어떤 의미가 있는지 간단히 서술했습니다. ‘기분이 좋아지고 스트레스가 풀린다’는 문장으로 활동의 효과를 표현한 점은 좋지만, 구체적인 내용(예: 어떤 장르를 좋아하는지, 누구의 음악인지 등)이 부족해 전체적으로는 평이한 인상을 줍니다. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>점수: 3점</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>학생 C의 답변</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">은 ‘취미가 없다’는 고백과 함께 일상적으로 시간을 보내는 모습만을 설명하고 있습니다. 이 답변은 주제에 대한 참여 의지가 부족해 보일 수 있으며, 자신이 평소 즐기는 일상의 활동 중에서도 취미로 발전시킬 만한 부분을 발견하고 서술했으면 더 좋은 글이 되었을 것입니다. 솔직한 표현은 장점이지만, 주제와의 연관성이 약합니다. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>점수: 2점</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +291,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,69 +617,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="5" width="8.6640625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>날짜</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>이름</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>제출 답변</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>인공지능 피드백</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>250409</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>이주일</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>안녕하세요!</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>평가해 주셔서 감사합니다. 이번에는 명확한 내용이 없어서 채점이 어려워 보입니다. 아래는 피드백을 제공해드리겠습니다.
-점수: 1/5
-1) 점수 배점 이유:
-이번에는 내용이 부족하여 명확한 평가가 어려웠습니다. 
-2) 글이 더 나아지기 위해 필요한 피드백:
-내용을 보강하여 주제나 의견을 더 명확하게 표현해 보세요. 더 많은 정보나 감정을 담아내면 독자들이 더 흥미를 느낄 것입니다. 이에 따라 글의 품질을 향상시킬 수 있을 것입니다.</t>
-        </is>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>250320</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>250320</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>250320</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>